--- a/data/trans_orig/Q4504_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q4504_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>60012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45689</v>
+        <v>45941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76347</v>
+        <v>74431</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08659830559869827</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06592927635232945</v>
+        <v>0.06629374547407199</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1101697193394872</v>
+        <v>0.1074054295932373</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -764,19 +764,19 @@
         <v>50752</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38525</v>
+        <v>37382</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66518</v>
+        <v>64609</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07384167701904067</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05605273160039138</v>
+        <v>0.05438908614453111</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09678024930539285</v>
+        <v>0.09400337690067495</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -785,19 +785,19 @@
         <v>110764</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>90778</v>
+        <v>91218</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>130943</v>
+        <v>130915</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08024626487701592</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06576709345337367</v>
+        <v>0.06608526164829001</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09486576146648283</v>
+        <v>0.09484508762526554</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>142121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>122470</v>
+        <v>122123</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164638</v>
+        <v>163629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2050830769266185</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.176725598016808</v>
+        <v>0.1762255594424894</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2375751642681036</v>
+        <v>0.2361185856730886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>126</v>
@@ -835,19 +835,19 @@
         <v>129928</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>110008</v>
+        <v>111918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>151143</v>
+        <v>151707</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1890383178162099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1600558400735019</v>
+        <v>0.1628357526174466</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2199061961543697</v>
+        <v>0.2207257339699892</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>264</v>
@@ -856,19 +856,19 @@
         <v>272049</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>241393</v>
+        <v>242367</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>304073</v>
+        <v>300684</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1970937431773063</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1748843728192722</v>
+        <v>0.1755899383979846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2202945329108195</v>
+        <v>0.2178389480422646</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>200233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>178498</v>
+        <v>177204</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>224616</v>
+        <v>227540</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2889396906725096</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.257574684384153</v>
+        <v>0.2557083720583032</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.324124567620109</v>
+        <v>0.3283434275605464</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>195</v>
@@ -906,19 +906,19 @@
         <v>191338</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>168211</v>
+        <v>168833</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>215960</v>
+        <v>214308</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2783872273003649</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2447381866528079</v>
+        <v>0.2456445210986987</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3142108191446254</v>
+        <v>0.311807886484996</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>392</v>
@@ -927,19 +927,19 @@
         <v>391571</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>363092</v>
+        <v>357940</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>426949</v>
+        <v>420840</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2836851928531709</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2630522391262943</v>
+        <v>0.2593201970256421</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3093156589653763</v>
+        <v>0.3048897535284572</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>57889</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45848</v>
+        <v>43979</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73905</v>
+        <v>73728</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08353484164784539</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06615991428929614</v>
+        <v>0.06346257857754431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1066463195585296</v>
+        <v>0.1063906114111035</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -977,19 +977,19 @@
         <v>81155</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>63952</v>
+        <v>66330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97426</v>
+        <v>97622</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1180770739158007</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09304776905398976</v>
+        <v>0.09650695619056922</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1417505647976481</v>
+        <v>0.1420353345790141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -998,19 +998,19 @@
         <v>139044</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>119250</v>
+        <v>118438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>160207</v>
+        <v>162873</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1007348145571258</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08639441192714065</v>
+        <v>0.08580587106081543</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1160663233759269</v>
+        <v>0.1179984163074607</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>232738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>210391</v>
+        <v>208828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>257906</v>
+        <v>259383</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3358440851543282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.303596638724282</v>
+        <v>0.3013412877284753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3721612745259801</v>
+        <v>0.3742931174503424</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>239</v>
@@ -1048,19 +1048,19 @@
         <v>234135</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>211788</v>
+        <v>207788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>260110</v>
+        <v>255889</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3406557039485838</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3081406912101028</v>
+        <v>0.3023209447195437</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3784479597328069</v>
+        <v>0.3723063322446766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>469</v>
@@ -1069,19 +1069,19 @@
         <v>466873</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>431239</v>
+        <v>430501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>499344</v>
+        <v>503286</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3382399845353811</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3124234470695475</v>
+        <v>0.3118886823789265</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3617646698165708</v>
+        <v>0.3646201028057018</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>176937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>149984</v>
+        <v>150654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202611</v>
+        <v>203754</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.18416318251804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.156109593320956</v>
+        <v>0.1568065217135018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2108850260251582</v>
+        <v>0.2120749816229134</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -1194,19 +1194,19 @@
         <v>162027</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139230</v>
+        <v>140306</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>186994</v>
+        <v>188808</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1676759093357099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.144084993697874</v>
+        <v>0.1451984619454126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1935137467933335</v>
+        <v>0.1953916233767345</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>303</v>
@@ -1215,19 +1215,19 @@
         <v>338964</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>304803</v>
+        <v>305211</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>373814</v>
+        <v>377052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1758958267351488</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1581690380950671</v>
+        <v>0.1583805841873413</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1939803891918624</v>
+        <v>0.1956609089138475</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>155992</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135300</v>
+        <v>131832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>179897</v>
+        <v>179980</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1623623838310126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1408258137741879</v>
+        <v>0.1372163122960204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1872434546742256</v>
+        <v>0.1873303257140304</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>129</v>
@@ -1265,19 +1265,19 @@
         <v>138704</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>117432</v>
+        <v>117561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162673</v>
+        <v>162715</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1435404085107925</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1215264959926319</v>
+        <v>0.1216594783942256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1683452838228762</v>
+        <v>0.168388291103938</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>273</v>
@@ -1286,19 +1286,19 @@
         <v>294696</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>262583</v>
+        <v>264228</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>326197</v>
+        <v>328559</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1529243181916425</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1362601231747646</v>
+        <v>0.1371138130405856</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1692711028974001</v>
+        <v>0.1704967331208201</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>294328</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>265813</v>
+        <v>266008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>326771</v>
+        <v>325699</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.306348412831886</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2766685347988022</v>
+        <v>0.2768713773447832</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3401161701307843</v>
+        <v>0.3390004892861389</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>266</v>
@@ -1336,19 +1336,19 @@
         <v>279901</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>251934</v>
+        <v>253975</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>312203</v>
+        <v>311961</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2896601597292801</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2607178185141612</v>
+        <v>0.2628301884047047</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3230887163215569</v>
+        <v>0.3228381458807846</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>542</v>
@@ -1357,19 +1357,19 @@
         <v>574229</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>533763</v>
+        <v>532108</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>616938</v>
+        <v>617631</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2979802779518231</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2769815800067305</v>
+        <v>0.2761226182238392</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3201430114070787</v>
+        <v>0.3205026585941914</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>80112</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>64633</v>
+        <v>62982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>99099</v>
+        <v>97914</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08338329489678012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0672722026842294</v>
+        <v>0.06555408628170584</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1031456470375635</v>
+        <v>0.1019127702132605</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -1407,19 +1407,19 @@
         <v>80352</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64657</v>
+        <v>64641</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101450</v>
+        <v>99621</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08315376350888212</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06691106310100638</v>
+        <v>0.06689470070131431</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1049873813567746</v>
+        <v>0.1030944561426607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>150</v>
@@ -1428,19 +1428,19 @@
         <v>160464</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136276</v>
+        <v>136610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187053</v>
+        <v>188627</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08326819899061613</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0707166668822701</v>
+        <v>0.07088979407151949</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09706607782024798</v>
+        <v>0.09788260676955578</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>253394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>226868</v>
+        <v>225135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>281456</v>
+        <v>279915</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2637427259222812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2361326893885111</v>
+        <v>0.2343294215861536</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2929502972779596</v>
+        <v>0.2913461906288228</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>287</v>
@@ -1478,19 +1478,19 @@
         <v>305324</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274389</v>
+        <v>272727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334191</v>
+        <v>332335</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3159697589153354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2839557645144444</v>
+        <v>0.2822358501681109</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3458436575463011</v>
+        <v>0.3439222781500962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>533</v>
@@ -1499,19 +1499,19 @@
         <v>558718</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>519686</v>
+        <v>516896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>597890</v>
+        <v>599532</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2899313781307694</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2696766151200648</v>
+        <v>0.2682289796719958</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.310258644072534</v>
+        <v>0.3111106426375576</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>112011</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93884</v>
+        <v>93407</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>132543</v>
+        <v>131480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1653023386564667</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1385512732683179</v>
+        <v>0.1378467475312741</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.195603398142023</v>
+        <v>0.1940343222113689</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -1624,19 +1624,19 @@
         <v>142356</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>120318</v>
+        <v>120452</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>162966</v>
+        <v>164434</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2081710133682464</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1759437489667376</v>
+        <v>0.1761407627104937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.238309546811016</v>
+        <v>0.240456882613556</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>249</v>
@@ -1645,19 +1645,19 @@
         <v>254367</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>226795</v>
+        <v>225923</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>282860</v>
+        <v>283576</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1868347269735577</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1665827020773306</v>
+        <v>0.1659426229998815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2077629141225033</v>
+        <v>0.208289180627506</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>164113</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>141506</v>
+        <v>140779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>190664</v>
+        <v>188307</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2421932128160929</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2088294207984862</v>
+        <v>0.2077571866354095</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2813759886010091</v>
+        <v>0.2778980558241601</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>145</v>
@@ -1695,19 +1695,19 @@
         <v>139168</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120689</v>
+        <v>119416</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160802</v>
+        <v>160392</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2035094786183196</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1764866313957606</v>
+        <v>0.1746249120196436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.235145726378438</v>
+        <v>0.2345452362367138</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>301</v>
@@ -1716,19 +1716,19 @@
         <v>303281</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>271876</v>
+        <v>273137</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332374</v>
+        <v>336350</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2227628667206792</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1996949973972392</v>
+        <v>0.2006217508259144</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2441320041348777</v>
+        <v>0.2470516901752141</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>186410</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>164222</v>
+        <v>164280</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>210447</v>
+        <v>211433</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2750977219472387</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.242353889582457</v>
+        <v>0.24243963191588</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3105717278102504</v>
+        <v>0.3120261884290573</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>149</v>
@@ -1766,19 +1766,19 @@
         <v>145463</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>125510</v>
+        <v>126174</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>169170</v>
+        <v>166864</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2127140973905007</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1835370031336538</v>
+        <v>0.1845075818523911</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2473827119707433</v>
+        <v>0.2440098310382112</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>320</v>
@@ -1787,19 +1787,19 @@
         <v>331872</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>302420</v>
+        <v>301534</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>362378</v>
+        <v>364608</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2437632233275697</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2221304636956195</v>
+        <v>0.221479697041945</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2661699918473899</v>
+        <v>0.2678077318761227</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>53282</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39962</v>
+        <v>39602</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>69915</v>
+        <v>68794</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07863255810800823</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05897529181179297</v>
+        <v>0.05844302602575015</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1031778248926735</v>
+        <v>0.1015240559013746</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -1837,19 +1837,19 @@
         <v>45074</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34845</v>
+        <v>33416</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59637</v>
+        <v>59073</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06591297931642678</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05095478708709488</v>
+        <v>0.04886530589732687</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08720817138724955</v>
+        <v>0.08638352131114967</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -1858,19 +1858,19 @@
         <v>98356</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80889</v>
+        <v>81158</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>119515</v>
+        <v>119210</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07224367597877114</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05941360560571637</v>
+        <v>0.05961152177596055</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08778502164049305</v>
+        <v>0.08756067749665605</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>161796</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>140589</v>
+        <v>138089</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184925</v>
+        <v>183618</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2387741684721935</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2074775332395342</v>
+        <v>0.2037873316544787</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2729060652212951</v>
+        <v>0.270977649291374</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>212</v>
@@ -1908,19 +1908,19 @@
         <v>211780</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189263</v>
+        <v>187919</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>238733</v>
+        <v>235396</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3096924313065065</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.276764095814973</v>
+        <v>0.2747987714550286</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3491063725739881</v>
+        <v>0.3442256243743759</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>369</v>
@@ -1929,19 +1929,19 @@
         <v>373577</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>343331</v>
+        <v>342532</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>409685</v>
+        <v>405619</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2743955069994222</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2521793217574299</v>
+        <v>0.2515926226255253</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3009170258278459</v>
+        <v>0.2979310283692904</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>189985</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>167714</v>
+        <v>166116</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>216388</v>
+        <v>215363</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2016354583143688</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1779988192625804</v>
+        <v>0.1763024439224975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2296574984324974</v>
+        <v>0.2285690543725666</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>229</v>
@@ -2054,19 +2054,19 @@
         <v>243088</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>218672</v>
+        <v>216262</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>273021</v>
+        <v>273091</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2343289588874178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2107919395797838</v>
+        <v>0.2084688634660376</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2631831510203143</v>
+        <v>0.2632503316437664</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>425</v>
@@ -2075,19 +2075,19 @@
         <v>433074</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>397504</v>
+        <v>398016</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>471674</v>
+        <v>469559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2187679927750258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2007997054451133</v>
+        <v>0.2010585872482276</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.238266740861623</v>
+        <v>0.2371985543916967</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>236789</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211844</v>
+        <v>212032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>263904</v>
+        <v>262338</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2513089738085895</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2248350039359215</v>
+        <v>0.2250342503716527</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2800864967428542</v>
+        <v>0.2784248798547869</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>213</v>
@@ -2125,19 +2125,19 @@
         <v>221703</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>196947</v>
+        <v>198864</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>249590</v>
+        <v>249435</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2137141789241606</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.189849831150004</v>
+        <v>0.1916985897047745</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2405963095731311</v>
+        <v>0.2404464053703973</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>468</v>
@@ -2146,19 +2146,19 @@
         <v>458492</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>423024</v>
+        <v>422225</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>495468</v>
+        <v>497230</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2316079901999461</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2136910973621462</v>
+        <v>0.2132878463676296</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2502866130802936</v>
+        <v>0.2511767430143403</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>260722</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>235332</v>
+        <v>233892</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>289880</v>
+        <v>286784</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2767097925830351</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2497627281505014</v>
+        <v>0.2482344153346333</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3076559643878833</v>
+        <v>0.3043698516082166</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>244</v>
@@ -2196,19 +2196,19 @@
         <v>248888</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>219902</v>
+        <v>219573</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>277939</v>
+        <v>275880</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.239919392332895</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2119776629886868</v>
+        <v>0.2116605270754446</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2679238201075491</v>
+        <v>0.2659389904329036</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>519</v>
@@ -2217,19 +2217,19 @@
         <v>509610</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>469888</v>
+        <v>473995</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>546785</v>
+        <v>545822</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2574303398153956</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2373649169555736</v>
+        <v>0.2394392626407726</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2762093404436242</v>
+        <v>0.2757227994156253</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>68698</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54410</v>
+        <v>54962</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87213</v>
+        <v>85098</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07291030898047017</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05774643221079567</v>
+        <v>0.05833223360832744</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09256096869660498</v>
+        <v>0.09031605683337329</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -2267,19 +2267,19 @@
         <v>71611</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>57286</v>
+        <v>55696</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>88792</v>
+        <v>88610</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06903090145994019</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05522172079569368</v>
+        <v>0.05368897069669267</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0855925420223051</v>
+        <v>0.08541742355218251</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -2288,19 +2288,19 @@
         <v>140309</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119999</v>
+        <v>120838</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>164381</v>
+        <v>163815</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07087736414839543</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06061748596170151</v>
+        <v>0.06104161794284847</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08303754830978753</v>
+        <v>0.08275155748641286</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>186028</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>165192</v>
+        <v>163017</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>211297</v>
+        <v>210320</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1974354663135365</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1753222609250399</v>
+        <v>0.1730130212435212</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2242535721881056</v>
+        <v>0.2232175238977315</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>241</v>
@@ -2338,19 +2338,19 @@
         <v>252090</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>221962</v>
+        <v>223798</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>279956</v>
+        <v>280157</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2430065683955865</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.213963669448875</v>
+        <v>0.2157331966709621</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2698681347821382</v>
+        <v>0.270061357733054</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>440</v>
@@ -2359,19 +2359,19 @@
         <v>438118</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>399304</v>
+        <v>403526</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>471347</v>
+        <v>473979</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.221316313061237</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2017093549163115</v>
+        <v>0.2038418540770749</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2381018857731168</v>
+        <v>0.2394312664753972</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>538946</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>493207</v>
+        <v>497650</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>585137</v>
+        <v>584619</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1646343429862602</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1506623959640617</v>
+        <v>0.1520195665891612</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1787446296210097</v>
+        <v>0.1785864470509761</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>573</v>
@@ -2484,19 +2484,19 @@
         <v>598223</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>551506</v>
+        <v>552866</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>640401</v>
+        <v>641057</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1772597150113147</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1634170545988724</v>
+        <v>0.1638200389919868</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1897576831616617</v>
+        <v>0.189952036538208</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1086</v>
@@ -2505,19 +2505,19 @@
         <v>1137169</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1073009</v>
+        <v>1081305</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1202181</v>
+        <v>1205856</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.17104316203509</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1613928857028223</v>
+        <v>0.162640628267027</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.180821722234839</v>
+        <v>0.1813745638805718</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>699015</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>654235</v>
+        <v>651895</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>745577</v>
+        <v>744415</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2135315655955177</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1998524352929617</v>
+        <v>0.1991375546098659</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2277549912145411</v>
+        <v>0.2274000544981993</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>613</v>
@@ -2555,19 +2555,19 @@
         <v>629503</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>588206</v>
+        <v>587722</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>679890</v>
+        <v>677428</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1865283480379165</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1742917212018835</v>
+        <v>0.1741483287074751</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2014584640586563</v>
+        <v>0.2007290196185448</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1306</v>
@@ -2576,19 +2576,19 @@
         <v>1328518</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1261865</v>
+        <v>1266827</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1388380</v>
+        <v>1398619</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1998243469314321</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1897989762882079</v>
+        <v>0.1905452000985041</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2088282313159887</v>
+        <v>0.2103683508142682</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>941694</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>887937</v>
+        <v>891015</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>994143</v>
+        <v>994129</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2876636855012787</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.271242328991928</v>
+        <v>0.2721826881450262</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.303685770985393</v>
+        <v>0.3036814559788273</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>854</v>
@@ -2626,19 +2626,19 @@
         <v>865589</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>814609</v>
+        <v>817275</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>918157</v>
+        <v>916881</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2564831653994213</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2413772389163388</v>
+        <v>0.2421672316419511</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2720596914688882</v>
+        <v>0.271681344445668</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1773</v>
@@ -2647,19 +2647,19 @@
         <v>1807283</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1738665</v>
+        <v>1733034</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1881904</v>
+        <v>1878748</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2718360084407809</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.261515133184835</v>
+        <v>0.2606681113836883</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2830598992853187</v>
+        <v>0.2825851174573193</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>259981</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>230240</v>
+        <v>228589</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>292714</v>
+        <v>291146</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.07941761500489396</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07033267861131454</v>
+        <v>0.06982813243014381</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08941669641593165</v>
+        <v>0.08893783391211622</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>274</v>
@@ -2697,19 +2697,19 @@
         <v>278193</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>247744</v>
+        <v>248237</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>311215</v>
+        <v>310843</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08243145639437158</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07340901281700817</v>
+        <v>0.073555355684101</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09221629063709896</v>
+        <v>0.09210612798457236</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>528</v>
@@ -2718,19 +2718,19 @@
         <v>538174</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>491187</v>
+        <v>497383</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>582111</v>
+        <v>582144</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08094748391241652</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07388010983874295</v>
+        <v>0.07481215764990927</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08755609965993812</v>
+        <v>0.08756104186625385</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>833957</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>782822</v>
+        <v>786951</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>887269</v>
+        <v>880013</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2547527909120494</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2391325677152694</v>
+        <v>0.2403938753001612</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2710383277379343</v>
+        <v>0.268821895803565</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>979</v>
@@ -2768,19 +2768,19 @@
         <v>1003330</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>952820</v>
+        <v>951719</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1058658</v>
+        <v>1054788</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.297297315156976</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2823304767812121</v>
+        <v>0.2820043790247586</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3136915017433088</v>
+        <v>0.3125446415242165</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1811</v>
@@ -2789,19 +2789,19 @@
         <v>1837287</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1766154</v>
+        <v>1763131</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1914324</v>
+        <v>1905916</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2763489986802805</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2656497779222571</v>
+        <v>0.2651950322568905</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2879361565293871</v>
+        <v>0.2866715569589028</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>153070</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130396</v>
+        <v>135432</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>175965</v>
+        <v>178774</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2181557637610234</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1858413556538717</v>
+        <v>0.1930176339248997</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2507864826371438</v>
+        <v>0.2547895644102971</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -3154,19 +3154,19 @@
         <v>128180</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105877</v>
+        <v>108940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150182</v>
+        <v>150135</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1841871760851373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1521378469210098</v>
+        <v>0.156540181279783</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2158025094046191</v>
+        <v>0.2157342819159502</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>264</v>
@@ -3175,19 +3175,19 @@
         <v>281250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>248082</v>
+        <v>253809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>313683</v>
+        <v>314192</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2012410934985973</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1775081204246351</v>
+        <v>0.1816061729482512</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2244471161391332</v>
+        <v>0.2248117379650017</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>147004</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>126667</v>
+        <v>125689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>169604</v>
+        <v>168773</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2095113725216484</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1805268102390862</v>
+        <v>0.1791325193034428</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2417207434725026</v>
+        <v>0.2405354502756933</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -3225,19 +3225,19 @@
         <v>150500</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128509</v>
+        <v>129273</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>172095</v>
+        <v>173876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.216259478814145</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1846599477912854</v>
+        <v>0.1857570618097905</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2472901013428422</v>
+        <v>0.2498482195535061</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>284</v>
@@ -3246,19 +3246,19 @@
         <v>297505</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>268991</v>
+        <v>267831</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>333729</v>
+        <v>326876</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2128715944396886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1924694812651289</v>
+        <v>0.1916393392710281</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2387907993433044</v>
+        <v>0.233887050723402</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>128856</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>109146</v>
+        <v>108840</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151454</v>
+        <v>150678</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1836466121462431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.15555495501487</v>
+        <v>0.1551188275103854</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2158529985079761</v>
+        <v>0.2147470622437266</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>122</v>
@@ -3296,19 +3296,19 @@
         <v>129453</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>110178</v>
+        <v>110142</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>151502</v>
+        <v>150323</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.186015322741331</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1583181763035503</v>
+        <v>0.1582675368459397</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2176992573843494</v>
+        <v>0.2160039364658628</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>247</v>
@@ -3317,19 +3317,19 @@
         <v>258309</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>232251</v>
+        <v>231378</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>288165</v>
+        <v>291532</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1848261124258932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1661807289958435</v>
+        <v>0.1655564176921677</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.206188511275519</v>
+        <v>0.2085978495086244</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>33271</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24029</v>
+        <v>23605</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45970</v>
+        <v>46055</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04741756121459691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03424560998057974</v>
+        <v>0.03364157953389064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06551723624842916</v>
+        <v>0.0656372536745331</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -3367,19 +3367,19 @@
         <v>37866</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27605</v>
+        <v>28012</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53006</v>
+        <v>51113</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05441047698688704</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03966645087424601</v>
+        <v>0.04025098598383663</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07616558732933226</v>
+        <v>0.07344650087994405</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -3388,19 +3388,19 @@
         <v>71136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55935</v>
+        <v>55894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89026</v>
+        <v>88222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05089968609979413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04002253688936342</v>
+        <v>0.03999340265014768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06369996752113817</v>
+        <v>0.06312494603510345</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>239453</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>213683</v>
+        <v>215148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>263322</v>
+        <v>264825</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3412686903564882</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3045421063066991</v>
+        <v>0.3066299513738133</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3752877532700611</v>
+        <v>0.3774292559306027</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>233</v>
@@ -3438,19 +3438,19 @@
         <v>249926</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>227423</v>
+        <v>224392</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>277150</v>
+        <v>276038</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3591275453724996</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3267922213060828</v>
+        <v>0.3224371238440457</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3982474026608201</v>
+        <v>0.396649105666762</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>458</v>
@@ -3459,19 +3459,19 @@
         <v>489378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>452507</v>
+        <v>456770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>527264</v>
+        <v>529094</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3501615135360268</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3237790619781198</v>
+        <v>0.3268292112865904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3772693645836551</v>
+        <v>0.3785786272282599</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>252620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>223636</v>
+        <v>223971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>282937</v>
+        <v>280363</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2488822399598511</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2203269354600333</v>
+        <v>0.2206567929070752</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2787504420176258</v>
+        <v>0.2762144027915461</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -3584,19 +3584,19 @@
         <v>238749</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214120</v>
+        <v>211240</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>270510</v>
+        <v>267236</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2325399973139364</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2085513417885374</v>
+        <v>0.2057459443322882</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2634749217763151</v>
+        <v>0.2602856329741797</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>451</v>
@@ -3605,19 +3605,19 @@
         <v>491369</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>447998</v>
+        <v>449988</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>530918</v>
+        <v>529985</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2406643657034697</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2194219481073681</v>
+        <v>0.2203964908741836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.260034820997555</v>
+        <v>0.2595775449303085</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>190609</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164639</v>
+        <v>166472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>217791</v>
+        <v>218513</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1877886907527987</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1622029895127309</v>
+        <v>0.1640083655926847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.214568569157594</v>
+        <v>0.215279327109319</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>193</v>
@@ -3655,19 +3655,19 @@
         <v>210644</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188087</v>
+        <v>185886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240681</v>
+        <v>237670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2051658807724302</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1831951964494427</v>
+        <v>0.1810513796500625</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2344213438905299</v>
+        <v>0.2314888446352397</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>366</v>
@@ -3676,19 +3676,19 @@
         <v>401253</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>367053</v>
+        <v>367198</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>444768</v>
+        <v>439139</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1965269995397066</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1797765195498372</v>
+        <v>0.1798474537241828</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2178399573128502</v>
+        <v>0.2150829904107782</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>193137</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>170325</v>
+        <v>169320</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>219759</v>
+        <v>222058</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1902787173078793</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1678050295164292</v>
+        <v>0.1668150885889043</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2165076446260349</v>
+        <v>0.218772254700288</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>179</v>
@@ -3726,19 +3726,19 @@
         <v>194441</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>168449</v>
+        <v>169862</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>222527</v>
+        <v>223234</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.189384118552715</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1640685368620204</v>
+        <v>0.1654447367211049</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2167395479812576</v>
+        <v>0.2174281022695375</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>362</v>
@@ -3747,19 +3747,19 @@
         <v>387577</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>352735</v>
+        <v>351796</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>421811</v>
+        <v>424838</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1898288586049373</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1727635278354984</v>
+        <v>0.1723039544947925</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2065960794863793</v>
+        <v>0.2080784466356543</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>48422</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35925</v>
+        <v>35932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63941</v>
+        <v>62353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04770596000680041</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03539327867269403</v>
+        <v>0.03540008205591611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06299488079372483</v>
+        <v>0.06143041611386385</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -3797,19 +3797,19 @@
         <v>46282</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34492</v>
+        <v>34545</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63046</v>
+        <v>60453</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04507829450422765</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03359462978759965</v>
+        <v>0.0336462696462478</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0614062667979248</v>
+        <v>0.05888097387575921</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -3818,19 +3818,19 @@
         <v>94704</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75610</v>
+        <v>76697</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116733</v>
+        <v>119625</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04638460986191242</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03703273875301834</v>
+        <v>0.03756470637766083</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05717398592074328</v>
+        <v>0.05859043151948182</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>330231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>303023</v>
+        <v>303638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365490</v>
+        <v>364112</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3253443919726703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2985393690410373</v>
+        <v>0.299145391573139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3600820510888207</v>
+        <v>0.358723883292001</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>302</v>
@@ -3868,19 +3868,19 @@
         <v>336585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>302544</v>
+        <v>307697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>365948</v>
+        <v>365509</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3278317088566907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2946755932490173</v>
+        <v>0.2996953284048586</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3564309788261288</v>
+        <v>0.3560029240849198</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>602</v>
@@ -3889,19 +3889,19 @@
         <v>666816</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>621101</v>
+        <v>623108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>710257</v>
+        <v>706403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.326595166289974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3042049455422378</v>
+        <v>0.3051879763457043</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3478719732118118</v>
+        <v>0.345984031416629</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>169906</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147350</v>
+        <v>145801</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194251</v>
+        <v>195891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2254473239696485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1955174446721443</v>
+        <v>0.1934618623547593</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2577497962347015</v>
+        <v>0.2599267293989253</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -4014,19 +4014,19 @@
         <v>164626</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140266</v>
+        <v>143897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>191129</v>
+        <v>192941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.212588343009805</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1811316284085348</v>
+        <v>0.1858205232923102</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2468126990104096</v>
+        <v>0.249152576502447</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>295</v>
@@ -4035,19 +4035,19 @@
         <v>334532</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>300364</v>
+        <v>303241</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>371372</v>
+        <v>371709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2189305401507226</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1965697996168341</v>
+        <v>0.1984525169027666</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2430396840511541</v>
+        <v>0.2432606301710175</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>154508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133227</v>
+        <v>134798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178702</v>
+        <v>181770</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2050154744534471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1767772380196539</v>
+        <v>0.1788619940558788</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2371181883933598</v>
+        <v>0.2411885918110216</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>159</v>
@@ -4085,19 +4085,19 @@
         <v>174216</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>153621</v>
+        <v>149282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202725</v>
+        <v>196027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2249723460348596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1983769950954943</v>
+        <v>0.1927742298359213</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2617879276780906</v>
+        <v>0.253137749922277</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>299</v>
@@ -4106,19 +4106,19 @@
         <v>328724</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>294952</v>
+        <v>294711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>363738</v>
+        <v>363898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2151293876946496</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1930275819114329</v>
+        <v>0.1928701344916658</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2380440522012788</v>
+        <v>0.2381484373756759</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>160963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>138883</v>
+        <v>138512</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>186542</v>
+        <v>185282</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2135798657320749</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.184282826945105</v>
+        <v>0.1837901159751915</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2475211166154583</v>
+        <v>0.2458496951000043</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>133</v>
@@ -4156,19 +4156,19 @@
         <v>144224</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>121596</v>
+        <v>123240</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>167182</v>
+        <v>165740</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.186242219228022</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1570214736113089</v>
+        <v>0.1591452182067447</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2158892148454723</v>
+        <v>0.2140266842584219</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>280</v>
@@ -4177,19 +4177,19 @@
         <v>305186</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>273373</v>
+        <v>273649</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>340061</v>
+        <v>340509</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1997254605547538</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1789058489777447</v>
+        <v>0.1790862047146285</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2225484896826406</v>
+        <v>0.2228418105347712</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>22312</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13624</v>
+        <v>13975</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34136</v>
+        <v>34265</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02960502937533721</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01807722170852177</v>
+        <v>0.01854348724065266</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04529526899609067</v>
+        <v>0.04546544735918054</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -4227,19 +4227,19 @@
         <v>23431</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13990</v>
+        <v>14827</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33751</v>
+        <v>34996</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03025756137751248</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01806609567749609</v>
+        <v>0.0191472354626704</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04358472914290513</v>
+        <v>0.04519236664612099</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -4248,19 +4248,19 @@
         <v>45743</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>32504</v>
+        <v>32932</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>61923</v>
+        <v>61945</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02993572509736889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02127194030781369</v>
+        <v>0.02155204886494368</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04052456601801478</v>
+        <v>0.04053886789913654</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>245952</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219131</v>
+        <v>219160</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>274195</v>
+        <v>272990</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3263523064694924</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2907632559488864</v>
+        <v>0.2908017210734509</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.36382745565535</v>
+        <v>0.3622285323592032</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -4298,19 +4298,19 @@
         <v>267891</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>240632</v>
+        <v>239598</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>293813</v>
+        <v>295976</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3459395303498009</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3107385726486139</v>
+        <v>0.3094032180696822</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3794129134377716</v>
+        <v>0.3822061485744367</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>473</v>
@@ -4319,19 +4319,19 @@
         <v>513844</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>475986</v>
+        <v>476169</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>552782</v>
+        <v>554842</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3362788865025051</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3115034848152348</v>
+        <v>0.3116229493760101</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3617613058459163</v>
+        <v>0.3631097267548075</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>301549</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>274450</v>
+        <v>271963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>328421</v>
+        <v>329769</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3181776506697312</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2895842487527568</v>
+        <v>0.286959559560604</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.346530830934063</v>
+        <v>0.3479532513952044</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>326</v>
@@ -4444,19 +4444,19 @@
         <v>344647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>314187</v>
+        <v>312480</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>376537</v>
+        <v>374817</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3288857895906722</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2998188339696824</v>
+        <v>0.2981902274650817</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.359317354679379</v>
+        <v>0.3576766955350218</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>617</v>
@@ -4465,19 +4465,19 @@
         <v>646196</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>608266</v>
+        <v>603324</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>689219</v>
+        <v>690150</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3238004946445374</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3047944920160532</v>
+        <v>0.3023180528766094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3453588188253749</v>
+        <v>0.3458253214059361</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>254634</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>223788</v>
+        <v>228368</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>282146</v>
+        <v>281852</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2686747453885246</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2361282047607826</v>
+        <v>0.2409604805164907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2977038744207826</v>
+        <v>0.2973936715177747</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>259</v>
@@ -4515,19 +4515,19 @@
         <v>267290</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>239253</v>
+        <v>241616</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>297741</v>
+        <v>296996</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2550663088419697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2283122800820066</v>
+        <v>0.2305672530344071</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2841249767584308</v>
+        <v>0.2834141524972875</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>505</v>
@@ -4536,19 +4536,19 @@
         <v>521923</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>484690</v>
+        <v>484103</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>558922</v>
+        <v>564838</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2615289550689119</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2428717816017627</v>
+        <v>0.2425776782035258</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2800686800693044</v>
+        <v>0.2830330423646639</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>169540</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>146710</v>
+        <v>147741</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>195374</v>
+        <v>194666</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1788892743568265</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1547998481988065</v>
+        <v>0.155887841895511</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2061474924090703</v>
+        <v>0.2054008491271085</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>158</v>
@@ -4586,19 +4586,19 @@
         <v>167984</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>143311</v>
+        <v>144719</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>193173</v>
+        <v>193690</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1603021810441649</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1367572343391385</v>
+        <v>0.138101218561218</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1843393544887252</v>
+        <v>0.1848322893175098</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>320</v>
@@ -4607,19 +4607,19 @@
         <v>337525</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>302571</v>
+        <v>305632</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>375378</v>
+        <v>371493</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1691291912635941</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1516146021737327</v>
+        <v>0.1531482591651032</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1880970582420449</v>
+        <v>0.186150467685115</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>38763</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28150</v>
+        <v>27497</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52750</v>
+        <v>53099</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04090051236244044</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02970201607624931</v>
+        <v>0.02901330988473369</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05565836591957155</v>
+        <v>0.05602744235071346</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -4657,19 +4657,19 @@
         <v>42580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30536</v>
+        <v>30109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56339</v>
+        <v>55643</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04063276555877501</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02913981360809669</v>
+        <v>0.02873186124396839</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05376244242684219</v>
+        <v>0.05309852714694039</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>80</v>
@@ -4678,19 +4678,19 @@
         <v>81343</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>65171</v>
+        <v>65379</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100134</v>
+        <v>100212</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0407599185101493</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03265644736064193</v>
+        <v>0.03276057549355369</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05017588180378562</v>
+        <v>0.05021508359839841</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>183253</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>160128</v>
+        <v>160180</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>209243</v>
+        <v>207960</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1933578172224771</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1689582382681256</v>
+        <v>0.1690125993454046</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2207810662560133</v>
+        <v>0.2194275893080745</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>215</v>
@@ -4728,19 +4728,19 @@
         <v>225422</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>200221</v>
+        <v>197581</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>252996</v>
+        <v>251117</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2151129549644181</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1910644975604517</v>
+        <v>0.1885453004363804</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2414261365018354</v>
+        <v>0.2396333513913912</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>388</v>
@@ -4749,19 +4749,19 @@
         <v>408674</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>371076</v>
+        <v>373230</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>446496</v>
+        <v>445298</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2047814405128072</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1859416110244835</v>
+        <v>0.1870206944389393</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2237334589983412</v>
+        <v>0.223133117010814</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>877146</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>825332</v>
+        <v>826793</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>930464</v>
+        <v>928152</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2566214711546286</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2414624082803541</v>
+        <v>0.2418901201690112</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2722203208633169</v>
+        <v>0.2715439608468019</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>806</v>
@@ -4874,19 +4874,19 @@
         <v>876202</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>825964</v>
+        <v>821064</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>930665</v>
+        <v>932023</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2471700508566633</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2329982187759166</v>
+        <v>0.2316161964137726</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2625336595734075</v>
+        <v>0.2629169303105608</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1627</v>
@@ -4895,19 +4895,19 @@
         <v>1753348</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1685484</v>
+        <v>1680891</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1826966</v>
+        <v>1831772</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2518096478614562</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2420633300098178</v>
+        <v>0.2414037057679536</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.262382441657674</v>
+        <v>0.263072711561843</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>746755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>695289</v>
+        <v>698304</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>798279</v>
+        <v>798948</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2184738500825009</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2034166253701287</v>
+        <v>0.2042985967137925</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2335478606798885</v>
+        <v>0.2337435413566643</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>751</v>
@@ -4945,19 +4945,19 @@
         <v>802650</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>755403</v>
+        <v>753450</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>855820</v>
+        <v>854571</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2264215385499772</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2130936994304953</v>
+        <v>0.2125425546808726</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2414203654540171</v>
+        <v>0.2410681157690707</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1454</v>
@@ -4966,19 +4966,19 @@
         <v>1549405</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1477829</v>
+        <v>1475166</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1614764</v>
+        <v>1619673</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2225201067602315</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2122406409941893</v>
+        <v>0.211858101780693</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2319067511984522</v>
+        <v>0.2326117766187615</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>652496</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>606239</v>
+        <v>608572</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>699550</v>
+        <v>698988</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1908969179432635</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.177363761748407</v>
+        <v>0.178046439741522</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2046632895391636</v>
+        <v>0.20449892060557</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>592</v>
@@ -5016,19 +5016,19 @@
         <v>636101</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>586848</v>
+        <v>591609</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>682297</v>
+        <v>688577</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.17943948871538</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1655453814189307</v>
+        <v>0.1668884099462006</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1924708142753669</v>
+        <v>0.19424237906746</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1209</v>
@@ -5037,19 +5037,19 @@
         <v>1288597</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1221978</v>
+        <v>1224153</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1359483</v>
+        <v>1360438</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1850638131716481</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1754961231067025</v>
+        <v>0.1758085594475146</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1952441158567439</v>
+        <v>0.1953812777982391</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>142768</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>122256</v>
+        <v>120339</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>169699</v>
+        <v>167321</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04176873402635096</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03576768003591569</v>
+        <v>0.03520700314973575</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04964769735147893</v>
+        <v>0.0489521162436926</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>142</v>
@@ -5087,19 +5087,19 @@
         <v>150159</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>128328</v>
+        <v>122910</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>177233</v>
+        <v>174032</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04235862359764457</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03620026231651442</v>
+        <v>0.03467187031625167</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04999603155385329</v>
+        <v>0.04909324968638393</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>277</v>
@@ -5108,19 +5108,19 @@
         <v>292926</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>262455</v>
+        <v>261248</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>332492</v>
+        <v>327176</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04206905337413842</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03769284264538819</v>
+        <v>0.03751958735442912</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04775136047677571</v>
+        <v>0.04698790947155846</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>998889</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>942677</v>
+        <v>946304</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1051765</v>
+        <v>1056905</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.292239026793256</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2757936165180874</v>
+        <v>0.2768545218664882</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3077087267893588</v>
+        <v>0.3092123555930639</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>996</v>
@@ -5158,19 +5158,19 @@
         <v>1079824</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1022643</v>
+        <v>1026895</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1135120</v>
+        <v>1137598</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3046102982803349</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2884799602406357</v>
+        <v>0.2896795221345653</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3202089175665994</v>
+        <v>0.3209080061570607</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1921</v>
@@ -5179,19 +5179,19 @@
         <v>2078712</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1994967</v>
+        <v>2000590</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2157278</v>
+        <v>2168814</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2985373788325259</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2865101545559023</v>
+        <v>0.2873177165521702</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3098206546218644</v>
+        <v>0.3114774922701641</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>129289</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109327</v>
+        <v>111384</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>151740</v>
+        <v>152981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1915959423295297</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1620146021320875</v>
+        <v>0.1650626051297934</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2248673182529899</v>
+        <v>0.2267060152140338</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>124</v>
@@ -5544,19 +5544,19 @@
         <v>124086</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>104506</v>
+        <v>104345</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145912</v>
+        <v>144731</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1850171858794866</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.155822824467283</v>
+        <v>0.1555826378454731</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2175611266974741</v>
+        <v>0.2157997779670343</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>243</v>
@@ -5565,19 +5565,19 @@
         <v>253375</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>225809</v>
+        <v>224426</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283514</v>
+        <v>284867</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1883166591374624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1678290161405112</v>
+        <v>0.1668013102508087</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2107172903606823</v>
+        <v>0.2117230590320396</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>152991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>132215</v>
+        <v>131091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176482</v>
+        <v>173559</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2267205382612051</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1959324441721596</v>
+        <v>0.1942671734493409</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2615328430240895</v>
+        <v>0.2572006607792913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -5615,19 +5615,19 @@
         <v>171133</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>149173</v>
+        <v>150118</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>193152</v>
+        <v>194006</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2551671403182793</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2224229760528911</v>
+        <v>0.2238323332278294</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2879985781477205</v>
+        <v>0.2892711925181025</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>325</v>
@@ -5636,19 +5636,19 @@
         <v>324124</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>289786</v>
+        <v>295860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>355104</v>
+        <v>354138</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2409001882764566</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2153790516365217</v>
+        <v>0.2198929017876469</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2639250547739951</v>
+        <v>0.2632071514256136</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>126888</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>106835</v>
+        <v>107721</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>151040</v>
+        <v>150102</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1880384050535882</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.158321343502225</v>
+        <v>0.1596342593136096</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2238291178233491</v>
+        <v>0.2224396088045816</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -5686,19 +5686,19 @@
         <v>129294</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111058</v>
+        <v>110227</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>152744</v>
+        <v>150545</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1927833452969196</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1655917895985811</v>
+        <v>0.164353825251924</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2277474771729743</v>
+        <v>0.224469483234422</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>251</v>
@@ -5707,19 +5707,19 @@
         <v>256183</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>230235</v>
+        <v>226934</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>289381</v>
+        <v>281955</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1904035941140858</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1711188179692696</v>
+        <v>0.1686649720506672</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.215078011771739</v>
+        <v>0.2095583865231411</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>44637</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32905</v>
+        <v>33771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58360</v>
+        <v>59941</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06614857474896248</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04876277912213924</v>
+        <v>0.05004548087237261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0864848283582703</v>
+        <v>0.08882777952776316</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -5757,19 +5757,19 @@
         <v>43260</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30730</v>
+        <v>31586</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57758</v>
+        <v>55892</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06450226679853756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04581975483351765</v>
+        <v>0.04709632846045463</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08612000796828254</v>
+        <v>0.08333767168937738</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -5778,19 +5778,19 @@
         <v>87897</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70896</v>
+        <v>70954</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>108677</v>
+        <v>104168</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06532794701607844</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05269216660241919</v>
+        <v>0.05273561867891296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08077217524787909</v>
+        <v>0.0774210132181874</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>220995</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>196408</v>
+        <v>197215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>245073</v>
+        <v>243247</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3274965396067145</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2910610036215041</v>
+        <v>0.2922573318576024</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3631790759934683</v>
+        <v>0.3604721902692456</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>192</v>
@@ -5828,19 +5828,19 @@
         <v>202898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>177008</v>
+        <v>180829</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>227620</v>
+        <v>227403</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.302530061706777</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2639265648504736</v>
+        <v>0.2696233674671966</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3393908827413374</v>
+        <v>0.3390680468796335</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>409</v>
@@ -5849,19 +5849,19 @@
         <v>423893</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>388741</v>
+        <v>391577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>460154</v>
+        <v>459324</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3150516114559167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2889254994521421</v>
+        <v>0.2910336435925244</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3420022214845104</v>
+        <v>0.3413855956319309</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>186469</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>162376</v>
+        <v>162200</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217759</v>
+        <v>212105</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1835036491800021</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1597939812437018</v>
+        <v>0.1596205069034928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2142957693612119</v>
+        <v>0.2087312730357896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>215</v>
@@ -5974,19 +5974,19 @@
         <v>228512</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>202191</v>
+        <v>203435</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255985</v>
+        <v>254225</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2193218522949483</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1940601593102557</v>
+        <v>0.1952539243601723</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.245690634787553</v>
+        <v>0.2440013649272127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>385</v>
@@ -5995,19 +5995,19 @@
         <v>414981</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>376596</v>
+        <v>380149</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>451310</v>
+        <v>453874</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2016367361411108</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1829857605535582</v>
+        <v>0.1847123094368984</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2192891690954017</v>
+        <v>0.2205345966131189</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>351602</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>319452</v>
+        <v>320082</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>385347</v>
+        <v>382228</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3460105010741844</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3143710244015915</v>
+        <v>0.3149918225032096</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3792183345277976</v>
+        <v>0.376149454008646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>343</v>
@@ -6045,19 +6045,19 @@
         <v>362718</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>328294</v>
+        <v>330391</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>393236</v>
+        <v>393164</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3481307329958162</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3150913952888582</v>
+        <v>0.3171044774378506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3774213473353927</v>
+        <v>0.3773523052980851</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>670</v>
@@ -6066,19 +6066,19 @@
         <v>714320</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>672603</v>
+        <v>673584</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>757480</v>
+        <v>762501</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3470838756845546</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.326813948726936</v>
+        <v>0.3272905551928547</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3680553222778528</v>
+        <v>0.3704948077017398</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>138372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>116318</v>
+        <v>117594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>161821</v>
+        <v>161256</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1361716156369272</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1144675929454145</v>
+        <v>0.1157233612192378</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1592477652341398</v>
+        <v>0.1586912809552494</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>130</v>
@@ -6116,19 +6116,19 @@
         <v>135336</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>113290</v>
+        <v>116014</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>158017</v>
+        <v>158800</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1298929322287074</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1087341456014101</v>
+        <v>0.111348238376054</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1516617761790064</v>
+        <v>0.152413497978</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>257</v>
@@ -6137,19 +6137,19 @@
         <v>273708</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>244328</v>
+        <v>243445</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>306351</v>
+        <v>304842</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1329930108398872</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1187174353579779</v>
+        <v>0.1182883331247557</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.148854060627778</v>
+        <v>0.1481211968036799</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>51645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39229</v>
+        <v>38462</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67397</v>
+        <v>67882</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05082396874484344</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03860470664802588</v>
+        <v>0.03785018016138764</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06632556508477823</v>
+        <v>0.06680265349630435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -6187,19 +6187,19 @@
         <v>52974</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39428</v>
+        <v>39411</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68031</v>
+        <v>69181</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05084372791784915</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0378427379888904</v>
+        <v>0.03782593500864489</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06529473162512502</v>
+        <v>0.06639861567046089</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -6208,19 +6208,19 @@
         <v>104619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86364</v>
+        <v>85773</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>126027</v>
+        <v>126535</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05083397189327728</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04196354675611068</v>
+        <v>0.0416765478210372</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06123557438218726</v>
+        <v>0.06148265873466432</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>288072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>259593</v>
+        <v>256769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>318211</v>
+        <v>318461</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2834902653640428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2554648734417606</v>
+        <v>0.2526851030241377</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3131498369279466</v>
+        <v>0.3133965946276663</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>239</v>
@@ -6258,19 +6258,19 @@
         <v>262362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>234279</v>
+        <v>235772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>291681</v>
+        <v>294009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.251810754562679</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2248573281836419</v>
+        <v>0.226290658754763</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2799511912363987</v>
+        <v>0.2821848240275112</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>511</v>
@@ -6279,19 +6279,19 @@
         <v>550433</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>513156</v>
+        <v>512824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>593298</v>
+        <v>591439</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.26745240544117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2493397761850092</v>
+        <v>0.2491783707094765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2882800275239426</v>
+        <v>0.2873766581044952</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>125366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>105020</v>
+        <v>103586</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147189</v>
+        <v>149713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1661390894629756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1391751165494149</v>
+        <v>0.1372749912179008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1950594420530359</v>
+        <v>0.198403356665122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>166</v>
@@ -6404,19 +6404,19 @@
         <v>175102</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154275</v>
+        <v>154643</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>201029</v>
+        <v>200182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2244349445269048</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1977399352879956</v>
+        <v>0.1982121903801412</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2576667132621522</v>
+        <v>0.256580683223594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>280</v>
@@ -6425,19 +6425,19 @@
         <v>300468</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>268006</v>
+        <v>269073</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>334537</v>
+        <v>333135</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1957732588158821</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.174622105045024</v>
+        <v>0.1753175007272808</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2179707938767869</v>
+        <v>0.2170575230274862</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>295383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>266432</v>
+        <v>267534</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>321596</v>
+        <v>321914</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3914504552323263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3530834243860956</v>
+        <v>0.3545442018524735</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4261874429031322</v>
+        <v>0.4266090931074187</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>297</v>
@@ -6475,19 +6475,19 @@
         <v>313657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>283293</v>
+        <v>287524</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>341867</v>
+        <v>342739</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4020258913975751</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3631075486392158</v>
+        <v>0.368530737522447</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4381838323783374</v>
+        <v>0.4393020662670332</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>566</v>
@@ -6496,19 +6496,19 @@
         <v>609040</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>569172</v>
+        <v>571817</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>643969</v>
+        <v>650048</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.396826382319392</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3708496322115204</v>
+        <v>0.3725731748983753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4195841979860819</v>
+        <v>0.423544975994744</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>147017</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>125879</v>
+        <v>126133</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>171021</v>
+        <v>170267</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1948317194052249</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1668180963007236</v>
+        <v>0.1671549617152216</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2266420797835551</v>
+        <v>0.2256420481083276</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>121</v>
@@ -6546,19 +6546,19 @@
         <v>126947</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106091</v>
+        <v>107564</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>149366</v>
+        <v>147854</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1627123608929462</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1359804381197606</v>
+        <v>0.1378687618450988</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1914478894554248</v>
+        <v>0.1895096395087791</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>256</v>
@@ -6567,19 +6567,19 @@
         <v>273964</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>245311</v>
+        <v>245812</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>306093</v>
+        <v>304613</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1785041347319103</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1598350748287802</v>
+        <v>0.1601613621195207</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1994379007492058</v>
+        <v>0.1984737314023524</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>31178</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21002</v>
+        <v>21949</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45505</v>
+        <v>45446</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04131781887348839</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02783293700708136</v>
+        <v>0.02908694256100719</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06030461110569608</v>
+        <v>0.06022675425114179</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -6617,19 +6617,19 @@
         <v>23258</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14991</v>
+        <v>15046</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34739</v>
+        <v>34933</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02981083254971117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01921512654358193</v>
+        <v>0.01928552049810197</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04452615622495981</v>
+        <v>0.04477454779959264</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -6638,19 +6638,19 @@
         <v>54436</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41827</v>
+        <v>42007</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70175</v>
+        <v>72596</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03546834670970521</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02725280111880967</v>
+        <v>0.02736999954509563</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04572297456535609</v>
+        <v>0.04730072794491378</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>155642</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134510</v>
+        <v>133851</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>179774</v>
+        <v>179357</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2062609170259847</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1782561976700795</v>
+        <v>0.1773833779639536</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2382410749746064</v>
+        <v>0.2376892366037127</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>127</v>
@@ -6688,19 +6688,19 @@
         <v>141227</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120562</v>
+        <v>118842</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>165469</v>
+        <v>165265</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1810159706328627</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.154529510849214</v>
+        <v>0.1523246222368984</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2120880335857952</v>
+        <v>0.2118268080692499</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>271</v>
@@ -6709,19 +6709,19 @@
         <v>296869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>264407</v>
+        <v>266209</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>329947</v>
+        <v>328442</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1934278774231104</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1722771796725105</v>
+        <v>0.1734512747633695</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2149804099598232</v>
+        <v>0.21399971862732</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>282602</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>255671</v>
+        <v>255072</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>311360</v>
+        <v>309429</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3017304853725995</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2729765292455795</v>
+        <v>0.2723370315490939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3324354069517672</v>
+        <v>0.3303739588048375</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>321</v>
@@ -6834,19 +6834,19 @@
         <v>349431</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>317156</v>
+        <v>319791</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>382177</v>
+        <v>382319</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3355745267353227</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3045793115430661</v>
+        <v>0.307109830602966</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3670224326886247</v>
+        <v>0.3671591137789121</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>597</v>
@@ -6855,19 +6855,19 @@
         <v>632033</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>591497</v>
+        <v>588467</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>676108</v>
+        <v>672041</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3195481688279424</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2990538298160455</v>
+        <v>0.2975220320953336</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3418322624661115</v>
+        <v>0.3397757195141796</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>263040</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>237752</v>
+        <v>238824</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>291652</v>
+        <v>292888</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2808444323059903</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.253844607842412</v>
+        <v>0.2549899709244142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3113931889619309</v>
+        <v>0.3127125928593966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>256</v>
@@ -6905,19 +6905,19 @@
         <v>270233</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>239248</v>
+        <v>244194</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>299975</v>
+        <v>300886</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2595172758468948</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.229760468164146</v>
+        <v>0.234510810216724</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2880801998117732</v>
+        <v>0.2889552328757072</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>522</v>
@@ -6926,19 +6926,19 @@
         <v>533273</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>494501</v>
+        <v>494682</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>574244</v>
+        <v>573801</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2696164433457451</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2500138702681727</v>
+        <v>0.25010517755621</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2903307896571233</v>
+        <v>0.2901066862742657</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>148711</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126433</v>
+        <v>127391</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>171256</v>
+        <v>171469</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1587774907790853</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1349911690539753</v>
+        <v>0.1360133596346501</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1828478057117549</v>
+        <v>0.1830752575091442</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>130</v>
@@ -6976,19 +6976,19 @@
         <v>137910</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>116523</v>
+        <v>116340</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>161535</v>
+        <v>160874</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1324410726256053</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1119023286799738</v>
+        <v>0.1117266773338265</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1551293273079922</v>
+        <v>0.1544948981105662</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>279</v>
@@ -6997,19 +6997,19 @@
         <v>286621</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>257383</v>
+        <v>258366</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>321728</v>
+        <v>319589</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.144912303788648</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.130129958326732</v>
+        <v>0.1306267308966042</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.16266186191588</v>
+        <v>0.161580256558037</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>41550</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30903</v>
+        <v>30446</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56031</v>
+        <v>55592</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04436193971403266</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0329943371045038</v>
+        <v>0.03250670840118294</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0598235018910354</v>
+        <v>0.05935524250555921</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -7047,19 +7047,19 @@
         <v>53607</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>40610</v>
+        <v>40440</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69608</v>
+        <v>68476</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0514815683608732</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03899972235921463</v>
+        <v>0.03883643087776641</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06684791998417272</v>
+        <v>0.06576109218363617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>91</v>
@@ -7068,19 +7068,19 @@
         <v>95157</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76768</v>
+        <v>77361</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>116356</v>
+        <v>117564</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04811017084841243</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03881301623263095</v>
+        <v>0.03911290475097481</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05882817373147401</v>
+        <v>0.05943915061336771</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>200701</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>177628</v>
+        <v>176963</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>227220</v>
+        <v>226201</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2142856518282923</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1896508034394701</v>
+        <v>0.1889412829038103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2426006455019159</v>
+        <v>0.2415119191473713</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>200</v>
@@ -7118,19 +7118,19 @@
         <v>230110</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>201514</v>
+        <v>202582</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>259442</v>
+        <v>258451</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.220985556431304</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1935228686976466</v>
+        <v>0.1945487280424661</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2491540184861103</v>
+        <v>0.2482023999375268</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>399</v>
@@ -7139,19 +7139,19 @@
         <v>430811</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>392693</v>
+        <v>394401</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>471273</v>
+        <v>468426</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2178129131892521</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1985408440492437</v>
+        <v>0.1994041932295456</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2382700257384967</v>
+        <v>0.2368307095316202</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>723727</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>674379</v>
+        <v>674055</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>771320</v>
+        <v>774220</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2139840278683497</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1993933926332644</v>
+        <v>0.1992977546135334</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2280559047406883</v>
+        <v>0.2289135462101047</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>826</v>
@@ -7264,19 +7264,19 @@
         <v>877130</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>818856</v>
+        <v>827529</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>930126</v>
+        <v>926313</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.248193781604803</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.231704444923915</v>
+        <v>0.2341586509639744</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.263189530051237</v>
+        <v>0.2621107147652908</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1505</v>
@@ -7285,19 +7285,19 @@
         <v>1600856</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1532383</v>
+        <v>1529335</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1679668</v>
+        <v>1684846</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2314645804527136</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2215641339287224</v>
+        <v>0.2211234215427885</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2428597062923109</v>
+        <v>0.243608394050759</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>1063017</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1007760</v>
+        <v>1003647</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1116359</v>
+        <v>1118917</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3143019249104276</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2979642051243985</v>
+        <v>0.2967480434688293</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3300736077513849</v>
+        <v>0.3308298459257099</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1070</v>
@@ -7335,19 +7335,19 @@
         <v>1117741</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1065291</v>
+        <v>1066373</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1174114</v>
+        <v>1177700</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3162772515289651</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3014359369199781</v>
+        <v>0.3017422862982675</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3322287407073755</v>
+        <v>0.3332433743872321</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2083</v>
@@ -7356,19 +7356,19 @@
         <v>2180757</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2099408</v>
+        <v>2105631</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2253878</v>
+        <v>2261323</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3153112803443384</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3035491582755914</v>
+        <v>0.3044488451413792</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3258836669987919</v>
+        <v>0.3269601469517224</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>560990</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>521450</v>
+        <v>519341</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>607092</v>
+        <v>610665</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1658676890942804</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1541768800405788</v>
+        <v>0.1535533311541437</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1794987345042345</v>
+        <v>0.1805552008892674</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>511</v>
@@ -7406,19 +7406,19 @@
         <v>529486</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>485321</v>
+        <v>487273</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>571532</v>
+        <v>573928</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1498240207654416</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1373270364400139</v>
+        <v>0.1378792451366715</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1617214455674663</v>
+        <v>0.1623993051194841</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1043</v>
@@ -7427,19 +7427,19 @@
         <v>1090476</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1028092</v>
+        <v>1036049</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1158593</v>
+        <v>1151635</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1576696707738645</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1486497252907846</v>
+        <v>0.1498001820682055</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1675186637381689</v>
+        <v>0.1665124880434002</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>169010</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>145808</v>
+        <v>144729</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>196584</v>
+        <v>195562</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04997109879541174</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04311098397508239</v>
+        <v>0.04279205970498177</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05812379841687464</v>
+        <v>0.05782171683701695</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>164</v>
@@ -7477,19 +7477,19 @@
         <v>173099</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>149392</v>
+        <v>146690</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>200774</v>
+        <v>200746</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.04898039931428441</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04227222785225608</v>
+        <v>0.04150747751076928</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05681139950954796</v>
+        <v>0.05680343528615499</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>327</v>
@@ -7498,19 +7498,19 @@
         <v>342109</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>308149</v>
+        <v>304191</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>384161</v>
+        <v>379570</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04946486965068993</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04455459949168403</v>
+        <v>0.04398240464656292</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05554510406115446</v>
+        <v>0.0548812852390192</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>865409</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>815389</v>
+        <v>815782</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>917297</v>
+        <v>919278</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2558752593315306</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2410857388365783</v>
+        <v>0.2412021389209874</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.271217033563446</v>
+        <v>0.271802644876958</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>758</v>
@@ -7548,19 +7548,19 @@
         <v>836597</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>783683</v>
+        <v>789334</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>887559</v>
+        <v>892776</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2367245467865059</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2217519588832134</v>
+        <v>0.2233510511623699</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2511447394336224</v>
+        <v>0.252620987601938</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1590</v>
@@ -7569,19 +7569,19 @@
         <v>1702006</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1631285</v>
+        <v>1627512</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1770997</v>
+        <v>1774768</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2460895987783936</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2358641827525747</v>
+        <v>0.2353185884790703</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2560647854715309</v>
+        <v>0.2566101224607316</v>
       </c>
     </row>
     <row r="33">
